--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/10/seed3/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.708299999999994</v>
+        <v>8.938999999999991</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.89729999999999</v>
+        <v>-22.05099999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,16 +597,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.52329999999998</v>
+        <v>-21.48679999999998</v>
       </c>
       <c r="B12" t="n">
-        <v>5.406300000000003</v>
+        <v>5.494099999999996</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.703900000000002</v>
+        <v>-5.888099999999998</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.604499999999991</v>
+        <v>-8.658399999999984</v>
       </c>
     </row>
     <row r="14">
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.395799999999998</v>
+        <v>5.326099999999997</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.32590000000002</v>
+        <v>-22.1941</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.67059999999999</v>
+        <v>-8.135199999999996</v>
       </c>
     </row>
     <row r="22">
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.017400000000001</v>
+        <v>4.093900000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.516200000000003</v>
+        <v>6.720200000000005</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.842599999999999</v>
+        <v>6.442299999999999</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -942,15 +942,15 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-6.998000000000003</v>
+        <v>-7.210800000000003</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.70909999999997</v>
+        <v>-21.80429999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>8.691200000000002</v>
+        <v>7.021699999999999</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.903100000000002</v>
+        <v>-8.0733</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.626299999999997</v>
+        <v>-8.217400000000003</v>
       </c>
     </row>
     <row r="42">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.785100000000003</v>
+        <v>-7.834900000000006</v>
       </c>
     </row>
     <row r="53">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.1039</v>
+        <v>-22.0551</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.288800000000004</v>
+        <v>6.2351</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1376,12 +1376,12 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.100899999999996</v>
+        <v>-7.474599999999997</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.476</v>
+        <v>-21.47959999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.997999999999998</v>
+        <v>8.811399999999997</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-19.8309</v>
+        <v>-19.91539999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.65809999999998</v>
+        <v>-19.89669999999997</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1608,7 +1608,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.452000000000004</v>
+        <v>5.772400000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1622,7 +1622,7 @@
         <v>-21.53</v>
       </c>
       <c r="B85" t="n">
-        <v>6.109</v>
+        <v>6.004599999999998</v>
       </c>
       <c r="C85" t="n">
         <v>-13.1</v>
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.401600000000006</v>
+        <v>-8.193599999999998</v>
       </c>
     </row>
     <row r="90">
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.4655</v>
+        <v>5.529999999999997</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1762,13 +1762,13 @@
         <v>-22.29</v>
       </c>
       <c r="B95" t="n">
-        <v>5.207800000000003</v>
+        <v>5.143400000000005</v>
       </c>
       <c r="C95" t="n">
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.609699999999998</v>
+        <v>-7.569600000000003</v>
       </c>
     </row>
     <row r="96">
@@ -1804,7 +1804,7 @@
         <v>-20.86</v>
       </c>
       <c r="B98" t="n">
-        <v>5.050000000000009</v>
+        <v>4.866000000000009</v>
       </c>
       <c r="C98" t="n">
         <v>-10.59</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.001700000000002</v>
+        <v>5.966100000000001</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>6.0999</v>
+        <v>5.992899999999999</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-8.206900000000005</v>
+        <v>-8.104700000000005</v>
       </c>
     </row>
   </sheetData>
